--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Week_of_2025-06-29</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Week_of_2025-07-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>1.05</v>
       </c>
+      <c r="E2" t="n">
+        <v>-0.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>0.15</v>
       </c>
+      <c r="E3" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>0.27</v>
       </c>
+      <c r="E4" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>1.14</v>
       </c>
+      <c r="E5" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>-0.21</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>1.52</v>
       </c>
+      <c r="E7" t="n">
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>0.35</v>
       </c>
+      <c r="E8" t="n">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -576,6 +602,9 @@
       </c>
       <c r="D9" t="n">
         <v>0.73</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -471,7 +471,7 @@
         <v>1.05</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.67</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         <v>0.27</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.12</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>1.14</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.91</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>-0.21</v>
       </c>
       <c r="E6" t="n">
-        <v>1.16</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1.52</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.3</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>0.35</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.75</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>0.73</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Week_of_2025-06-15</t>
+  </si>
+  <si>
+    <t>Week_of_2025-06-22</t>
+  </si>
+  <si>
+    <t>Week_of_2025-06-29</t>
+  </si>
+  <si>
+    <t>Week_of_2025-07-06</t>
+  </si>
+  <si>
+    <t>bebidas</t>
+  </si>
+  <si>
+    <t>carnes-aves-e-peixes</t>
+  </si>
+  <si>
+    <t>casa-e-lazer</t>
+  </si>
+  <si>
+    <t>higiene-e-beleza</t>
+  </si>
+  <si>
+    <t>hortifruti</t>
+  </si>
+  <si>
+    <t>limpeza</t>
+  </si>
+  <si>
+    <t>mercearia</t>
+  </si>
+  <si>
+    <t>Overall Market</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,194 +406,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Week_of_2025-06-15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Week_of_2025-06-22</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Week_of_2025-06-29</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Week_of_2025-07-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>bebidas</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>2.02</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>-0.68</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.05</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>carnes-aves-e-peixes</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>3.3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-0.64</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.15</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>casa-e-lazer</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="E3">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0.16</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.39</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.27</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>higiene-e-beleza</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E4">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>3.03</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.14</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>hortifruti</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E5">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>-1.45</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-0.44</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-0.21</v>
       </c>
-      <c r="E6" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>limpeza</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="E6">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>1.29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.52</v>
       </c>
-      <c r="E7" t="n">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>mercearia</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E7">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>1.52</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.35</v>
       </c>
-      <c r="E8" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Overall Market</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E8">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>1.61</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.66</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.73</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.02</v>
+      <c r="E9">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -441,7 +441,7 @@
         <v>1.05</v>
       </c>
       <c r="E2">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +458,7 @@
         <v>0.15</v>
       </c>
       <c r="E3">
-        <v>-0.28</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,7 +475,7 @@
         <v>0.27</v>
       </c>
       <c r="E4">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,7 +492,7 @@
         <v>1.14</v>
       </c>
       <c r="E5">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,7 +509,7 @@
         <v>-0.21</v>
       </c>
       <c r="E6">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -543,7 +543,7 @@
         <v>0.35</v>
       </c>
       <c r="E8">
-        <v>-0.31</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.73</v>
       </c>
       <c r="E9">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -441,7 +441,7 @@
         <v>1.05</v>
       </c>
       <c r="E2">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +458,7 @@
         <v>0.15</v>
       </c>
       <c r="E3">
-        <v>-0.31</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,7 +475,7 @@
         <v>0.27</v>
       </c>
       <c r="E4">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,7 +492,7 @@
         <v>1.14</v>
       </c>
       <c r="E5">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,7 +509,7 @@
         <v>-0.21</v>
       </c>
       <c r="E6">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,7 +526,7 @@
         <v>1.52</v>
       </c>
       <c r="E7">
-        <v>-0.92</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,7 +543,7 @@
         <v>0.35</v>
       </c>
       <c r="E8">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.73</v>
       </c>
       <c r="E9">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -441,7 +441,7 @@
         <v>1.05</v>
       </c>
       <c r="E2">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +458,7 @@
         <v>0.15</v>
       </c>
       <c r="E3">
-        <v>-0.52</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,7 +475,7 @@
         <v>0.27</v>
       </c>
       <c r="E4">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,7 +492,7 @@
         <v>1.14</v>
       </c>
       <c r="E5">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,7 +509,7 @@
         <v>-0.21</v>
       </c>
       <c r="E6">
-        <v>3.41</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,7 +526,7 @@
         <v>1.52</v>
       </c>
       <c r="E7">
-        <v>-0.91</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,7 +543,7 @@
         <v>0.35</v>
       </c>
       <c r="E8">
-        <v>-0.15</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.73</v>
       </c>
       <c r="E9">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -441,7 +441,7 @@
         <v>1.05</v>
       </c>
       <c r="E2">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +458,7 @@
         <v>0.15</v>
       </c>
       <c r="E3">
-        <v>-0.92</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,7 +475,7 @@
         <v>0.27</v>
       </c>
       <c r="E4">
-        <v>-0.08</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,7 +492,7 @@
         <v>1.14</v>
       </c>
       <c r="E5">
-        <v>1.07</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,7 +509,7 @@
         <v>-0.21</v>
       </c>
       <c r="E6">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,7 +526,7 @@
         <v>1.52</v>
       </c>
       <c r="E7">
-        <v>-1.25</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,7 +543,7 @@
         <v>0.35</v>
       </c>
       <c r="E8">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.73</v>
       </c>
       <c r="E9">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Week_of_2025-06-15</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Week_of_2025-07-06</t>
+  </si>
+  <si>
+    <t>Week_of_2025-07-13</t>
   </si>
   <si>
     <t>bebidas</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,10 +429,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2.02</v>
@@ -443,10 +449,13 @@
       <c r="E2">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3.3</v>
@@ -460,10 +469,13 @@
       <c r="E3">
         <v>-1.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.16</v>
@@ -477,10 +489,13 @@
       <c r="E4">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3.03</v>
@@ -494,10 +509,13 @@
       <c r="E5">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>-2.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>-1.45</v>
@@ -511,10 +529,13 @@
       <c r="E6">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1.29</v>
@@ -528,10 +549,13 @@
       <c r="E7">
         <v>-1.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1.52</v>
@@ -545,10 +569,13 @@
       <c r="E8">
         <v>-0.09</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1.61</v>
@@ -561,6 +588,9 @@
       </c>
       <c r="E9">
         <v>0.11</v>
+      </c>
+      <c r="F9">
+        <v>-1.13</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -450,7 +450,7 @@
         <v>0.78</v>
       </c>
       <c r="F2">
-        <v>-1.97</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -490,7 +490,7 @@
         <v>-0.2</v>
       </c>
       <c r="F4">
-        <v>-0.77</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,7 +510,7 @@
         <v>0.66</v>
       </c>
       <c r="F5">
-        <v>-2.67</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -550,7 +550,7 @@
         <v>-1.49</v>
       </c>
       <c r="F7">
-        <v>-1.85</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,7 +570,7 @@
         <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>0.09</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,7 +590,7 @@
         <v>0.11</v>
       </c>
       <c r="F9">
-        <v>-1.13</v>
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -450,7 +450,7 @@
         <v>0.78</v>
       </c>
       <c r="F2">
-        <v>-1.36</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -490,7 +490,7 @@
         <v>-0.2</v>
       </c>
       <c r="F4">
-        <v>-0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,7 +510,7 @@
         <v>0.66</v>
       </c>
       <c r="F5">
-        <v>-1.45</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,7 +530,7 @@
         <v>3.89</v>
       </c>
       <c r="F6">
-        <v>1.06</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,7 +550,7 @@
         <v>-1.49</v>
       </c>
       <c r="F7">
-        <v>-1.11</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,7 +570,7 @@
         <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>0.58</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,7 +590,7 @@
         <v>0.11</v>
       </c>
       <c r="F9">
-        <v>-0.46</v>
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -450,7 +450,7 @@
         <v>0.78</v>
       </c>
       <c r="F2">
-        <v>-0.87</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -490,7 +490,7 @@
         <v>-0.2</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,7 +510,7 @@
         <v>0.66</v>
       </c>
       <c r="F5">
-        <v>-0.74</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,7 +530,7 @@
         <v>3.89</v>
       </c>
       <c r="F6">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,7 +550,7 @@
         <v>-1.49</v>
       </c>
       <c r="F7">
-        <v>-0.86</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,7 +570,7 @@
         <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,7 +590,7 @@
         <v>0.11</v>
       </c>
       <c r="F9">
-        <v>-0.09</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -450,7 +450,7 @@
         <v>0.78</v>
       </c>
       <c r="F2">
-        <v>-0.59</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -490,7 +490,7 @@
         <v>-0.2</v>
       </c>
       <c r="F4">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,7 +510,7 @@
         <v>0.66</v>
       </c>
       <c r="F5">
-        <v>-0.38</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -550,7 +550,7 @@
         <v>-1.49</v>
       </c>
       <c r="F7">
-        <v>-0.68</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,7 +570,7 @@
         <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,7 +590,7 @@
         <v>0.11</v>
       </c>
       <c r="F9">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -450,7 +450,7 @@
         <v>0.78</v>
       </c>
       <c r="F2">
-        <v>-0.71</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,7 +470,7 @@
         <v>-1.21</v>
       </c>
       <c r="F3">
-        <v>-1.91</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,7 +490,7 @@
         <v>-0.2</v>
       </c>
       <c r="F4">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,7 +510,7 @@
         <v>0.66</v>
       </c>
       <c r="F5">
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,7 +530,7 @@
         <v>3.89</v>
       </c>
       <c r="F6">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,7 +550,7 @@
         <v>-1.49</v>
       </c>
       <c r="F7">
-        <v>-0.57</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,7 +570,7 @@
         <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -450,7 +450,7 @@
         <v>0.78</v>
       </c>
       <c r="F2">
-        <v>-0.78</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,7 +470,7 @@
         <v>-1.21</v>
       </c>
       <c r="F3">
-        <v>-1.92</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,7 +490,7 @@
         <v>-0.2</v>
       </c>
       <c r="F4">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,7 +510,7 @@
         <v>0.66</v>
       </c>
       <c r="F5">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,7 +530,7 @@
         <v>3.89</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,7 +550,7 @@
         <v>-1.49</v>
       </c>
       <c r="F7">
-        <v>-0.49</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,7 +570,7 @@
         <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,7 +590,7 @@
         <v>0.11</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Week_of_2025-06-15</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Week_of_2025-07-13</t>
+  </si>
+  <si>
+    <t>Week_of_2025-07-20</t>
   </si>
   <si>
     <t>bebidas</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,10 +435,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2.02</v>
@@ -452,10 +458,13 @@
       <c r="F2">
         <v>-1.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3.3</v>
@@ -472,10 +481,13 @@
       <c r="F3">
         <v>-1.86</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.16</v>
@@ -492,10 +504,13 @@
       <c r="F4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3.03</v>
@@ -512,10 +527,13 @@
       <c r="F5">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>-1.45</v>
@@ -532,10 +550,13 @@
       <c r="F6">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1.29</v>
@@ -552,10 +573,13 @@
       <c r="F7">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1.52</v>
@@ -572,10 +596,13 @@
       <c r="F8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1.61</v>
@@ -591,6 +618,9 @@
       </c>
       <c r="F9">
         <v>0.11</v>
+      </c>
+      <c r="G9">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -459,7 +459,7 @@
         <v>-1.03</v>
       </c>
       <c r="G2">
-        <v>-1.71</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,7 +482,7 @@
         <v>-1.86</v>
       </c>
       <c r="G3">
-        <v>0.45</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,7 +505,7 @@
         <v>0.54</v>
       </c>
       <c r="G4">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,7 +528,7 @@
         <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>0.98</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,7 +551,7 @@
         <v>0.24</v>
       </c>
       <c r="G6">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,7 +574,7 @@
         <v>-0.32</v>
       </c>
       <c r="G7">
-        <v>0.97</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,7 +597,7 @@
         <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,7 +620,7 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -459,7 +459,7 @@
         <v>-1.03</v>
       </c>
       <c r="G2">
-        <v>-0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,7 +482,7 @@
         <v>-1.86</v>
       </c>
       <c r="G3">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,7 +505,7 @@
         <v>0.54</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,7 +528,7 @@
         <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,7 +551,7 @@
         <v>0.24</v>
       </c>
       <c r="G6">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,7 +574,7 @@
         <v>-0.32</v>
       </c>
       <c r="G7">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,7 +597,7 @@
         <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,7 +620,7 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -459,7 +459,7 @@
         <v>-1.03</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,7 +482,7 @@
         <v>-1.86</v>
       </c>
       <c r="G3">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,7 +505,7 @@
         <v>0.54</v>
       </c>
       <c r="G4">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,7 +528,7 @@
         <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,7 +551,7 @@
         <v>0.24</v>
       </c>
       <c r="G6">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,7 +574,7 @@
         <v>-0.32</v>
       </c>
       <c r="G7">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,7 +597,7 @@
         <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,7 +620,7 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -459,7 +459,7 @@
         <v>-1.03</v>
       </c>
       <c r="G2">
-        <v>0.58</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,7 +482,7 @@
         <v>-1.86</v>
       </c>
       <c r="G3">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,7 +505,7 @@
         <v>0.54</v>
       </c>
       <c r="G4">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,7 +528,7 @@
         <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,7 +551,7 @@
         <v>0.24</v>
       </c>
       <c r="G6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,7 +574,7 @@
         <v>-0.32</v>
       </c>
       <c r="G7">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,7 +597,7 @@
         <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,7 +620,7 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -459,7 +459,7 @@
         <v>-1.03</v>
       </c>
       <c r="G2">
-        <v>0.23</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,7 +482,7 @@
         <v>-1.86</v>
       </c>
       <c r="G3">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,7 +505,7 @@
         <v>0.54</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,7 +528,7 @@
         <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,7 +551,7 @@
         <v>0.24</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,7 +574,7 @@
         <v>-0.32</v>
       </c>
       <c r="G7">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,7 +597,7 @@
         <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,7 +620,7 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Week_of_2025-06-15</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Week_of_2025-07-20</t>
+  </si>
+  <si>
+    <t>Week_of_2025-07-27</t>
   </si>
   <si>
     <t>bebidas</t>
@@ -413,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +441,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2.02</v>
@@ -459,12 +465,15 @@
         <v>-1.03</v>
       </c>
       <c r="G2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.24</v>
+      </c>
+      <c r="H2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3.3</v>
@@ -484,10 +493,13 @@
       <c r="G3">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.16</v>
@@ -505,12 +517,15 @@
         <v>0.54</v>
       </c>
       <c r="G4">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.57</v>
+      </c>
+      <c r="H4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3.03</v>
@@ -528,12 +543,15 @@
         <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.35</v>
+      </c>
+      <c r="H5">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>-1.45</v>
@@ -551,12 +569,15 @@
         <v>0.24</v>
       </c>
       <c r="G6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.43</v>
+      </c>
+      <c r="H6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1.29</v>
@@ -574,12 +595,15 @@
         <v>-0.32</v>
       </c>
       <c r="G7">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.28</v>
+      </c>
+      <c r="H7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1.52</v>
@@ -597,12 +621,15 @@
         <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.28</v>
+      </c>
+      <c r="H8">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1.61</v>
@@ -620,7 +647,10 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.61</v>
+        <v>0.54</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -468,7 +468,7 @@
         <v>-0.24</v>
       </c>
       <c r="H2">
-        <v>0.32</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -520,7 +520,7 @@
         <v>0.57</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,7 +546,7 @@
         <v>1.35</v>
       </c>
       <c r="H5">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -572,7 +572,7 @@
         <v>0.43</v>
       </c>
       <c r="H6">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,7 +598,7 @@
         <v>1.28</v>
       </c>
       <c r="H7">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -624,7 +624,7 @@
         <v>0.28</v>
       </c>
       <c r="H8">
-        <v>-0.32</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,7 +650,7 @@
         <v>0.54</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -468,7 +468,7 @@
         <v>-0.24</v>
       </c>
       <c r="H2">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -520,7 +520,7 @@
         <v>0.57</v>
       </c>
       <c r="H4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,7 +546,7 @@
         <v>1.35</v>
       </c>
       <c r="H5">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -572,7 +572,7 @@
         <v>0.43</v>
       </c>
       <c r="H6">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,7 +598,7 @@
         <v>1.28</v>
       </c>
       <c r="H7">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -624,7 +624,7 @@
         <v>0.28</v>
       </c>
       <c r="H8">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,7 +650,7 @@
         <v>0.54</v>
       </c>
       <c r="H9">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -468,7 +468,7 @@
         <v>-0.24</v>
       </c>
       <c r="H2">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -520,7 +520,7 @@
         <v>0.57</v>
       </c>
       <c r="H4">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,7 +546,7 @@
         <v>1.35</v>
       </c>
       <c r="H5">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -572,7 +572,7 @@
         <v>0.43</v>
       </c>
       <c r="H6">
-        <v>0.55</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,7 +598,7 @@
         <v>1.28</v>
       </c>
       <c r="H7">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -624,7 +624,7 @@
         <v>0.28</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,7 +650,7 @@
         <v>0.54</v>
       </c>
       <c r="H9">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -468,7 +468,7 @@
         <v>-0.24</v>
       </c>
       <c r="H2">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -494,7 +494,7 @@
         <v>1.75</v>
       </c>
       <c r="H3">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -520,7 +520,7 @@
         <v>0.57</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,7 +546,7 @@
         <v>1.35</v>
       </c>
       <c r="H5">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -598,7 +598,7 @@
         <v>1.28</v>
       </c>
       <c r="H7">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -624,7 +624,7 @@
         <v>0.28</v>
       </c>
       <c r="H8">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,7 +650,7 @@
         <v>0.54</v>
       </c>
       <c r="H9">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Week_of_2025-06-15</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Week_of_2025-07-27</t>
+  </si>
+  <si>
+    <t>Week_of_2025-08-03</t>
   </si>
   <si>
     <t>bebidas</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +447,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2.02</v>
@@ -468,12 +474,15 @@
         <v>-0.24</v>
       </c>
       <c r="H2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.64</v>
+      </c>
+      <c r="I2">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3.3</v>
@@ -494,12 +503,15 @@
         <v>1.75</v>
       </c>
       <c r="H3">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1.3</v>
+      </c>
+      <c r="I3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.16</v>
@@ -520,12 +532,15 @@
         <v>0.57</v>
       </c>
       <c r="H4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3.03</v>
@@ -546,12 +561,15 @@
         <v>1.35</v>
       </c>
       <c r="H5">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1.25</v>
+      </c>
+      <c r="I5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-1.45</v>
@@ -572,12 +590,15 @@
         <v>0.43</v>
       </c>
       <c r="H6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.08</v>
+      </c>
+      <c r="I6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1.29</v>
@@ -598,12 +619,15 @@
         <v>1.28</v>
       </c>
       <c r="H7">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.86</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1.52</v>
@@ -624,12 +648,15 @@
         <v>0.28</v>
       </c>
       <c r="H8">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.28</v>
+      </c>
+      <c r="I8">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1.61</v>
@@ -650,7 +677,10 @@
         <v>0.54</v>
       </c>
       <c r="H9">
-        <v>0.72</v>
+        <v>0.55</v>
+      </c>
+      <c r="I9">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -477,7 +477,7 @@
         <v>0.64</v>
       </c>
       <c r="I2">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -564,7 +564,7 @@
         <v>1.25</v>
       </c>
       <c r="I5">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -622,7 +622,7 @@
         <v>0.86</v>
       </c>
       <c r="I7">
-        <v>0.3</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,7 +651,7 @@
         <v>0.28</v>
       </c>
       <c r="I8">
-        <v>-0.31</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -680,7 +680,7 @@
         <v>0.55</v>
       </c>
       <c r="I9">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_weekly_variation.xlsx
+++ b/static/images/Fort_sector_weekly_variation.xlsx
@@ -477,7 +477,7 @@
         <v>0.64</v>
       </c>
       <c r="I2">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -506,7 +506,7 @@
         <v>1.3</v>
       </c>
       <c r="I3">
-        <v>0.04</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.24</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -564,7 +564,7 @@
         <v>1.25</v>
       </c>
       <c r="I5">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -593,7 +593,7 @@
         <v>-0.08</v>
       </c>
       <c r="I6">
-        <v>-0.2</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -622,7 +622,7 @@
         <v>0.86</v>
       </c>
       <c r="I7">
-        <v>-0.38</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,7 +651,7 @@
         <v>0.28</v>
       </c>
       <c r="I8">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:9">
